--- a/data/SingaporeLanguage.xlsx
+++ b/data/SingaporeLanguage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreyjahja/Documents/Uni/FIT3179/Git/Assignment 2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreyjahja/Documents/Uni/FIT3179/fit3179_ass2.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AC8BEA-BEC5-C942-943F-941463A430B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F7CCD-DF83-3B47-BBBA-F9C0E3F2F767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{9372D268-1D93-704F-8F49-B6E7BA7FE5F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>English</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>https://www.singstat.gov.sg/find-data/search-by-theme/population/education-language-spoken-and-literacy/visualising-data/home-language-of-residents-aged-5-years-and-over-dashboard</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
@@ -86,8 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,115 +411,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07688F01-467B-AA40-96CE-C28AA34DB332}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>2000</v>
-      </c>
-      <c r="C1">
-        <v>2005</v>
-      </c>
-      <c r="D1">
-        <v>2010</v>
-      </c>
-      <c r="E1">
-        <v>2015</v>
-      </c>
-      <c r="F1">
-        <v>2020</v>
-      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>28.1</v>
+        <v>2005</v>
       </c>
       <c r="D2">
-        <v>32.299999999999997</v>
+        <v>2010</v>
       </c>
       <c r="E2">
-        <v>36.9</v>
+        <v>2015</v>
       </c>
       <c r="F2">
-        <v>48.3</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>28.1</v>
       </c>
       <c r="D3">
-        <v>35.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E3">
-        <v>34.9</v>
+        <v>36.9</v>
       </c>
       <c r="F3">
-        <v>29.9</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>14.1</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>13.2</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>12.2</v>
+        <v>35.6</v>
       </c>
       <c r="E4">
-        <v>10.7</v>
+        <v>34.9</v>
       </c>
       <c r="F4">
-        <v>9.1999999999999993</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>14.1</v>
+      </c>
+      <c r="C5">
+        <v>13.2</v>
+      </c>
+      <c r="D5">
+        <v>12.2</v>
+      </c>
+      <c r="E5">
+        <v>10.7</v>
+      </c>
+      <c r="F5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3.2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>3.1</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>3.3</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>3.3</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>